--- a/Sample/Excels/MstItems.xlsx
+++ b/Sample/Excels/MstItems.xlsx
@@ -68,7 +68,7 @@
     <t>enum:MstItemCategory</t>
   </si>
   <si>
-    <t>item1-1</t>
+    <t>item1</t>
   </si>
   <si>
     <t>Red</t>
@@ -1435,7 +1435,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
